--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/10/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.426699999999995</v>
+        <v>-7.152499999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.56100000000001</v>
+        <v>-21.6025</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.713299999999996</v>
+        <v>-7.907599999999998</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.444500000000003</v>
+        <v>-8.481600000000007</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.452600000000002</v>
+        <v>-8.452499999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.20329999999998</v>
+        <v>-21.2258</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.267599999999996</v>
+        <v>-8.357999999999997</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.233</v>
+        <v>-20.1245</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.896299999999997</v>
+        <v>-7.873599999999997</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.5758</v>
+        <v>-19.6076</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.650299999999999</v>
+        <v>-7.723299999999998</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.7951</v>
+        <v>-21.8061</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.94889999999999</v>
+        <v>-21.87439999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.4057</v>
+        <v>-22.39810000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.432700000000001</v>
+        <v>-8.4626</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.42099999999998</v>
+        <v>-21.41619999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.51749999999998</v>
+        <v>-21.56239999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.88499999999999</v>
+        <v>-21.93040000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.42230000000001</v>
+        <v>-21.4647</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-19.94209999999998</v>
+        <v>-20.34839999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-7.983100000000002</v>
+        <v>-8.079099999999999</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.855799999999997</v>
+        <v>-7.932799999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
